--- a/biology/Médecine/Fosse_crânienne_antérieure/Fosse_crânienne_antérieure.xlsx
+++ b/biology/Médecine/Fosse_crânienne_antérieure/Fosse_crânienne_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_ant%C3%A9rieure</t>
+          <t>Fosse_crânienne_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse crânienne antérieure ou étage antérieur de la base du crâne est une dépression de la base interne du crâne qui abrite les lobes frontaux du cerveau.
 Elle est formée par le plafond orbital de l'os frontal, la lame criblée de l'ethmoïde, les petites ailes et la partie antérieure du corps du sphénoïde.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_ant%C3%A9rieure</t>
+          <t>Fosse_crânienne_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse crânienne antérieure est traversée par les sutures fronto-ethmoïdale, sphéno-ethmoïdale et sphéno-frontale.
 Ses parties latérales forment le plafond des cavités orbitaires et soutiennent les lobes frontaux du cerveau. Elles sont convexes et marquées par les circonvolutions cérébrales et les branches des vaisseaux méningés.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_ant%C3%A9rieure</t>
+          <t>Fosse_crânienne_antérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La fosse crânienne antérieure contient  :
 le lobe frontal du cortex cérébral,
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_ant%C3%A9rieure</t>
+          <t>Fosse_crânienne_antérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Ouvertures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La fosse crânienne antérieure communique avec :
 les orbites via le foramen ethmoïdal antérieur,
